--- a/Hashmap sort.xlsx
+++ b/Hashmap sort.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sorting map by key and value" sheetId="1" r:id="rId1"/>
@@ -1173,7 +1173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -1194,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -1220,7 +1220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -1315,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
